--- a/NumachProgramme.xlsx
+++ b/NumachProgramme.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="28028"/>
   <workbookPr autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="14780" tabRatio="500" activeTab="4"/>
+    <workbookView xWindow="-80" yWindow="120" windowWidth="25600" windowHeight="14720" tabRatio="500" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="Sept-11" sheetId="1" r:id="rId1"/>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="179" uniqueCount="129">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="159" uniqueCount="114">
   <si>
     <t>Timeline</t>
   </si>
@@ -75,9 +75,6 @@
   <si>
     <t>Artemiy Dimov
 R. Hild</t>
-  </si>
-  <si>
-    <t>10:45-11:15</t>
   </si>
   <si>
     <t xml:space="preserve">Diffuse optical tomography for tumour detection: direct and inverse problems. Inverse problems with Feel++ </t>
@@ -303,78 +300,6 @@
     <t>11:00-11:40</t>
   </si>
   <si>
-    <t>Conf1</t>
-  </si>
-  <si>
-    <t>Conf2</t>
-  </si>
-  <si>
-    <t>Conf3</t>
-  </si>
-  <si>
-    <t>Conf4</t>
-  </si>
-  <si>
-    <t>Conf5</t>
-  </si>
-  <si>
-    <t>9:00-9:40</t>
-  </si>
-  <si>
-    <t>Conf6</t>
-  </si>
-  <si>
-    <t>9:40-10:20</t>
-  </si>
-  <si>
-    <t>Conf7</t>
-  </si>
-  <si>
-    <t>10:20-10:45</t>
-  </si>
-  <si>
-    <t>Com1</t>
-  </si>
-  <si>
-    <t>11:15-11:55</t>
-  </si>
-  <si>
-    <t>Conf8</t>
-  </si>
-  <si>
-    <t>11:55-12:30</t>
-  </si>
-  <si>
-    <t>Com2</t>
-  </si>
-  <si>
-    <t>Conf9</t>
-  </si>
-  <si>
-    <t>Conf10</t>
-  </si>
-  <si>
-    <t>16:30-17:10</t>
-  </si>
-  <si>
-    <t>Conf11</t>
-  </si>
-  <si>
-    <t>Com3</t>
-  </si>
-  <si>
-    <t>Conf12</t>
-  </si>
-  <si>
-    <t>Conf13</t>
-  </si>
-  <si>
-    <t>Com4</t>
-  </si>
-  <si>
-    <t>Conf15</t>
-  </si>
-  <si>
     <t>Gala Dinner</t>
   </si>
   <si>
@@ -390,40 +315,70 @@
     <t>14:50-15:30</t>
   </si>
   <si>
-    <t>15:30-15:55</t>
-  </si>
-  <si>
-    <t>15:55-16:30</t>
-  </si>
-  <si>
     <t>Panel Discussion</t>
   </si>
   <si>
     <t>12:30-14:10</t>
   </si>
   <si>
-    <t>Com5</t>
-  </si>
-  <si>
     <t>17:10-17:50</t>
   </si>
   <si>
-    <t>Conf14</t>
-  </si>
-  <si>
-    <t>11:55-12:35</t>
-  </si>
-  <si>
-    <t>Conf16</t>
-  </si>
-  <si>
     <t>Welcome and opening</t>
   </si>
   <si>
-    <t>17:50-18:30</t>
-  </si>
-  <si>
-    <t>Conf17</t>
+    <t>a</t>
+  </si>
+  <si>
+    <t>b</t>
+  </si>
+  <si>
+    <t>c</t>
+  </si>
+  <si>
+    <t>16:00-16:30</t>
+  </si>
+  <si>
+    <t>16:30-17:00</t>
+  </si>
+  <si>
+    <t>17:00-17:45</t>
+  </si>
+  <si>
+    <t>9:15-9:55</t>
+  </si>
+  <si>
+    <t>9:55-10:35</t>
+  </si>
+  <si>
+    <t>10:35-11:10</t>
+  </si>
+  <si>
+    <t>11:10-11:50</t>
+  </si>
+  <si>
+    <t>11:50-12:20</t>
+  </si>
+  <si>
+    <t>14:15-14:55</t>
+  </si>
+  <si>
+    <t>14:55-15:35</t>
+  </si>
+  <si>
+    <t>15:35-16:10</t>
+  </si>
+  <si>
+    <t>16:10-17:00</t>
+  </si>
+  <si>
+    <t>Faker Ben Belgacem</t>
+  </si>
+  <si>
+    <t>TBA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Li-Lian Wang (NTU, Singapore) </t>
   </si>
 </sst>
 </file>
@@ -493,7 +448,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="29">
+  <cellStyleXfs count="53">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -523,8 +478,32 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="29">
+  <cellXfs count="31">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
@@ -594,6 +573,12 @@
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -610,10 +595,10 @@
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <alignment horizontal="center" wrapText="1"/>
     </xf>
   </cellXfs>
-  <cellStyles count="29">
+  <cellStyles count="53">
     <cellStyle name="Lien hypertexte" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Lien hypertexte" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Lien hypertexte" xfId="5" builtinId="8" hidden="1"/>
@@ -628,6 +613,18 @@
     <cellStyle name="Lien hypertexte" xfId="23" builtinId="8" hidden="1"/>
     <cellStyle name="Lien hypertexte" xfId="25" builtinId="8" hidden="1"/>
     <cellStyle name="Lien hypertexte" xfId="27" builtinId="8" hidden="1"/>
+    <cellStyle name="Lien hypertexte" xfId="29" builtinId="8" hidden="1"/>
+    <cellStyle name="Lien hypertexte" xfId="31" builtinId="8" hidden="1"/>
+    <cellStyle name="Lien hypertexte" xfId="33" builtinId="8" hidden="1"/>
+    <cellStyle name="Lien hypertexte" xfId="35" builtinId="8" hidden="1"/>
+    <cellStyle name="Lien hypertexte" xfId="37" builtinId="8" hidden="1"/>
+    <cellStyle name="Lien hypertexte" xfId="39" builtinId="8" hidden="1"/>
+    <cellStyle name="Lien hypertexte" xfId="41" builtinId="8" hidden="1"/>
+    <cellStyle name="Lien hypertexte" xfId="43" builtinId="8" hidden="1"/>
+    <cellStyle name="Lien hypertexte" xfId="45" builtinId="8" hidden="1"/>
+    <cellStyle name="Lien hypertexte" xfId="47" builtinId="8" hidden="1"/>
+    <cellStyle name="Lien hypertexte" xfId="49" builtinId="8" hidden="1"/>
+    <cellStyle name="Lien hypertexte" xfId="51" builtinId="8" hidden="1"/>
     <cellStyle name="Lien hypertexte visité" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Lien hypertexte visité" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="Lien hypertexte visité" xfId="6" builtinId="9" hidden="1"/>
@@ -642,6 +639,18 @@
     <cellStyle name="Lien hypertexte visité" xfId="24" builtinId="9" hidden="1"/>
     <cellStyle name="Lien hypertexte visité" xfId="26" builtinId="9" hidden="1"/>
     <cellStyle name="Lien hypertexte visité" xfId="28" builtinId="9" hidden="1"/>
+    <cellStyle name="Lien hypertexte visité" xfId="30" builtinId="9" hidden="1"/>
+    <cellStyle name="Lien hypertexte visité" xfId="32" builtinId="9" hidden="1"/>
+    <cellStyle name="Lien hypertexte visité" xfId="34" builtinId="9" hidden="1"/>
+    <cellStyle name="Lien hypertexte visité" xfId="36" builtinId="9" hidden="1"/>
+    <cellStyle name="Lien hypertexte visité" xfId="38" builtinId="9" hidden="1"/>
+    <cellStyle name="Lien hypertexte visité" xfId="40" builtinId="9" hidden="1"/>
+    <cellStyle name="Lien hypertexte visité" xfId="42" builtinId="9" hidden="1"/>
+    <cellStyle name="Lien hypertexte visité" xfId="44" builtinId="9" hidden="1"/>
+    <cellStyle name="Lien hypertexte visité" xfId="46" builtinId="9" hidden="1"/>
+    <cellStyle name="Lien hypertexte visité" xfId="48" builtinId="9" hidden="1"/>
+    <cellStyle name="Lien hypertexte visité" xfId="50" builtinId="9" hidden="1"/>
+    <cellStyle name="Lien hypertexte visité" xfId="52" builtinId="9" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -992,7 +1001,7 @@
     </row>
     <row r="2" spans="1:5" ht="12.75" customHeight="1">
       <c r="A2" s="7" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B2" s="7" t="s">
         <v>4</v>
@@ -1000,23 +1009,23 @@
       <c r="C2" s="1"/>
     </row>
     <row r="3" spans="1:5" ht="12.75" customHeight="1">
-      <c r="A3" s="23"/>
-      <c r="B3" s="23" t="s">
-        <v>81</v>
-      </c>
-      <c r="C3" s="23"/>
+      <c r="A3" s="25"/>
+      <c r="B3" s="25" t="s">
+        <v>80</v>
+      </c>
+      <c r="C3" s="25"/>
     </row>
     <row r="4" spans="1:5" ht="12.75" customHeight="1">
-      <c r="A4" s="24"/>
-      <c r="B4" s="24"/>
-      <c r="C4" s="24"/>
+      <c r="A4" s="26"/>
+      <c r="B4" s="26"/>
+      <c r="C4" s="26"/>
     </row>
     <row r="5" spans="1:5" ht="12.75" customHeight="1">
       <c r="A5" s="9" t="s">
+        <v>81</v>
+      </c>
+      <c r="B5" s="9" t="s">
         <v>82</v>
-      </c>
-      <c r="B5" s="9" t="s">
-        <v>83</v>
       </c>
       <c r="C5" s="9"/>
       <c r="D5" s="9"/>
@@ -1024,16 +1033,16 @@
     </row>
     <row r="6" spans="1:5" ht="12.75" customHeight="1">
       <c r="A6" s="9" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="B6" s="17" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C6" s="9"/>
     </row>
     <row r="7" spans="1:5" ht="12.75" customHeight="1">
       <c r="A7" s="11" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B7" s="10" t="s">
         <v>12</v>
@@ -1042,24 +1051,24 @@
     </row>
     <row r="8" spans="1:5" ht="12.75" customHeight="1">
       <c r="A8" s="9" t="s">
+        <v>36</v>
+      </c>
+      <c r="B8" s="25" t="s">
         <v>37</v>
       </c>
-      <c r="B8" s="23" t="s">
-        <v>38</v>
-      </c>
-      <c r="C8" s="24"/>
+      <c r="C8" s="26"/>
     </row>
     <row r="9" spans="1:5" ht="12.75" customHeight="1">
-      <c r="A9" s="23" t="s">
-        <v>41</v>
-      </c>
-      <c r="B9" s="24"/>
-      <c r="C9" s="24"/>
+      <c r="A9" s="25" t="s">
+        <v>40</v>
+      </c>
+      <c r="B9" s="26"/>
+      <c r="C9" s="26"/>
     </row>
     <row r="10" spans="1:5" ht="12.75" customHeight="1">
-      <c r="A10" s="24"/>
-      <c r="B10" s="24"/>
-      <c r="C10" s="24"/>
+      <c r="A10" s="26"/>
+      <c r="B10" s="26"/>
+      <c r="C10" s="26"/>
     </row>
   </sheetData>
   <mergeCells count="5">
@@ -1128,67 +1137,67 @@
         <v>16</v>
       </c>
       <c r="C4" s="9" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="5" spans="1:3" ht="12.75" customHeight="1">
       <c r="A5" s="10" t="s">
-        <v>20</v>
-      </c>
-      <c r="B5" s="25"/>
-      <c r="C5" s="24"/>
+        <v>19</v>
+      </c>
+      <c r="B5" s="27"/>
+      <c r="C5" s="26"/>
     </row>
     <row r="6" spans="1:3" ht="12.75" customHeight="1">
       <c r="A6" s="7" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B6" s="12" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C6" s="12" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="7" spans="1:3" ht="12.75" customHeight="1">
       <c r="A7" s="7" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B7" s="12" t="s">
+        <v>32</v>
+      </c>
+      <c r="C7" s="12" t="s">
         <v>33</v>
-      </c>
-      <c r="C7" s="12" t="s">
-        <v>34</v>
       </c>
     </row>
     <row r="8" spans="1:3" ht="12.75" customHeight="1">
       <c r="A8" s="10" t="s">
-        <v>22</v>
-      </c>
-      <c r="B8" s="25" t="s">
-        <v>24</v>
-      </c>
-      <c r="C8" s="24"/>
+        <v>21</v>
+      </c>
+      <c r="B8" s="27" t="s">
+        <v>23</v>
+      </c>
+      <c r="C8" s="26"/>
     </row>
     <row r="9" spans="1:3" ht="12.75" customHeight="1">
-      <c r="A9" s="23" t="s">
-        <v>39</v>
-      </c>
-      <c r="B9" s="23" t="s">
-        <v>42</v>
-      </c>
-      <c r="C9" s="23" t="s">
-        <v>44</v>
+      <c r="A9" s="25" t="s">
+        <v>38</v>
+      </c>
+      <c r="B9" s="25" t="s">
+        <v>41</v>
+      </c>
+      <c r="C9" s="25" t="s">
+        <v>43</v>
       </c>
     </row>
     <row r="10" spans="1:3" ht="12.75" customHeight="1">
-      <c r="A10" s="24"/>
-      <c r="B10" s="24"/>
-      <c r="C10" s="24"/>
+      <c r="A10" s="26"/>
+      <c r="B10" s="26"/>
+      <c r="C10" s="26"/>
     </row>
     <row r="11" spans="1:3" ht="12.75" customHeight="1">
-      <c r="A11" s="24"/>
-      <c r="B11" s="24"/>
-      <c r="C11" s="24"/>
+      <c r="A11" s="26"/>
+      <c r="B11" s="26"/>
+      <c r="C11" s="26"/>
     </row>
   </sheetData>
   <mergeCells count="5">
@@ -1262,74 +1271,74 @@
         <v>15</v>
       </c>
       <c r="C5" s="9" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="6" spans="1:3" ht="12.75" customHeight="1">
       <c r="A6" s="10" t="s">
-        <v>20</v>
-      </c>
-      <c r="B6" s="25" t="s">
+        <v>19</v>
+      </c>
+      <c r="B6" s="27" t="s">
         <v>12</v>
       </c>
-      <c r="C6" s="24"/>
+      <c r="C6" s="26"/>
     </row>
     <row r="7" spans="1:3" ht="12.75" customHeight="1">
       <c r="A7" s="7" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B7" s="12" t="s">
         <v>5</v>
       </c>
       <c r="C7" s="12" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="8" spans="1:3" ht="12.75" customHeight="1">
       <c r="A8" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="B8" s="12" t="s">
         <v>28</v>
       </c>
-      <c r="B8" s="12" t="s">
+      <c r="C8" s="12" t="s">
         <v>29</v>
-      </c>
-      <c r="C8" s="12" t="s">
-        <v>30</v>
       </c>
     </row>
     <row r="9" spans="1:3" ht="12.75" customHeight="1">
       <c r="A9" s="10" t="s">
-        <v>22</v>
-      </c>
-      <c r="B9" s="25" t="s">
-        <v>24</v>
-      </c>
-      <c r="C9" s="24"/>
+        <v>21</v>
+      </c>
+      <c r="B9" s="27" t="s">
+        <v>23</v>
+      </c>
+      <c r="C9" s="26"/>
     </row>
     <row r="10" spans="1:3" ht="12.75" customHeight="1">
       <c r="A10" s="9" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B10" s="9" t="s">
+        <v>34</v>
+      </c>
+      <c r="C10" s="9" t="s">
         <v>35</v>
-      </c>
-      <c r="C10" s="9" t="s">
-        <v>36</v>
       </c>
     </row>
     <row r="11" spans="1:3" ht="12.75" customHeight="1">
       <c r="A11" s="14" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B11" s="9" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C11" s="12" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="12" spans="1:3" ht="12.75" customHeight="1">
       <c r="A12" s="11" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B12" s="10" t="s">
         <v>12</v>
@@ -1338,44 +1347,44 @@
     </row>
     <row r="13" spans="1:3" ht="12.75" customHeight="1">
       <c r="A13" s="9" t="s">
+        <v>45</v>
+      </c>
+      <c r="B13" s="9" t="s">
         <v>46</v>
       </c>
-      <c r="B13" s="9" t="s">
+      <c r="C13" s="9" t="s">
         <v>47</v>
-      </c>
-      <c r="C13" s="9" t="s">
-        <v>48</v>
       </c>
     </row>
     <row r="14" spans="1:3" ht="12.75" customHeight="1">
       <c r="A14" s="9" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B14" s="9" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C14" s="9" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="15" spans="1:3" ht="12.75" customHeight="1">
       <c r="A15" s="11" t="s">
+        <v>49</v>
+      </c>
+      <c r="B15" s="11" t="s">
         <v>50</v>
-      </c>
-      <c r="B15" s="11" t="s">
-        <v>51</v>
       </c>
       <c r="C15" s="13"/>
     </row>
     <row r="16" spans="1:3" ht="12.75" customHeight="1">
       <c r="A16" s="9" t="s">
+        <v>51</v>
+      </c>
+      <c r="B16" s="15" t="s">
         <v>52</v>
       </c>
-      <c r="B16" s="15" t="s">
+      <c r="C16" s="15" t="s">
         <v>53</v>
-      </c>
-      <c r="C16" s="15" t="s">
-        <v>54</v>
       </c>
     </row>
   </sheetData>
@@ -1415,46 +1424,46 @@
       </c>
     </row>
     <row r="2" spans="1:3" ht="12.75" customHeight="1">
-      <c r="A2" s="23" t="s">
+      <c r="A2" s="25" t="s">
+        <v>54</v>
+      </c>
+      <c r="B2" s="25" t="s">
         <v>55</v>
       </c>
-      <c r="B2" s="23" t="s">
+      <c r="C2" s="29" t="s">
         <v>56</v>
       </c>
-      <c r="C2" s="27" t="s">
-        <v>57</v>
-      </c>
     </row>
     <row r="3" spans="1:3" ht="12.75" customHeight="1">
-      <c r="A3" s="24"/>
-      <c r="B3" s="24"/>
-      <c r="C3" s="24"/>
+      <c r="A3" s="26"/>
+      <c r="B3" s="26"/>
+      <c r="C3" s="26"/>
     </row>
     <row r="4" spans="1:3" ht="12.75" customHeight="1">
       <c r="A4" s="9" t="s">
+        <v>57</v>
+      </c>
+      <c r="B4" s="9" t="s">
         <v>58</v>
       </c>
-      <c r="B4" s="9" t="s">
+      <c r="C4" s="9" t="s">
         <v>59</v>
-      </c>
-      <c r="C4" s="9" t="s">
-        <v>60</v>
       </c>
     </row>
     <row r="5" spans="1:3" ht="12.75" customHeight="1">
       <c r="A5" s="9" t="s">
+        <v>60</v>
+      </c>
+      <c r="B5" s="9" t="s">
         <v>61</v>
       </c>
-      <c r="B5" s="9" t="s">
+      <c r="C5" s="9" t="s">
         <v>62</v>
-      </c>
-      <c r="C5" s="9" t="s">
-        <v>63</v>
       </c>
     </row>
     <row r="6" spans="1:3" ht="12.75" customHeight="1">
       <c r="A6" s="11" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B6" s="10" t="s">
         <v>12</v>
@@ -1462,55 +1471,55 @@
       <c r="C6" s="13"/>
     </row>
     <row r="7" spans="1:3" ht="12.75" customHeight="1">
-      <c r="A7" s="23" t="s">
+      <c r="A7" s="25" t="s">
+        <v>64</v>
+      </c>
+      <c r="B7" s="25" t="s">
         <v>65</v>
       </c>
-      <c r="B7" s="23" t="s">
+      <c r="C7" s="25" t="s">
         <v>66</v>
       </c>
-      <c r="C7" s="23" t="s">
-        <v>67</v>
-      </c>
     </row>
     <row r="8" spans="1:3" ht="12.75" customHeight="1">
-      <c r="A8" s="24"/>
-      <c r="B8" s="24"/>
-      <c r="C8" s="24"/>
+      <c r="A8" s="26"/>
+      <c r="B8" s="26"/>
+      <c r="C8" s="26"/>
     </row>
     <row r="9" spans="1:3" ht="12.75" customHeight="1">
       <c r="A9" s="9" t="s">
+        <v>67</v>
+      </c>
+      <c r="B9" s="7" t="s">
         <v>68</v>
       </c>
-      <c r="B9" s="7" t="s">
+      <c r="C9" s="9" t="s">
         <v>69</v>
-      </c>
-      <c r="C9" s="9" t="s">
-        <v>70</v>
       </c>
     </row>
     <row r="10" spans="1:3" ht="12.75" customHeight="1">
       <c r="A10" s="11" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B10" s="10" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C10" s="13"/>
     </row>
     <row r="11" spans="1:3" ht="12.75" customHeight="1">
       <c r="A11" s="9" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B11" s="9" t="s">
+        <v>71</v>
+      </c>
+      <c r="C11" s="9" t="s">
         <v>72</v>
-      </c>
-      <c r="C11" s="9" t="s">
-        <v>73</v>
       </c>
     </row>
     <row r="12" spans="1:3" ht="12.75" customHeight="1">
       <c r="A12" s="11" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B12" s="10" t="s">
         <v>12</v>
@@ -1519,23 +1528,23 @@
     </row>
     <row r="13" spans="1:3" ht="12.75" customHeight="1">
       <c r="A13" s="12" t="s">
+        <v>74</v>
+      </c>
+      <c r="B13" s="12" t="s">
         <v>75</v>
       </c>
-      <c r="B13" s="12" t="s">
+      <c r="C13" s="9" t="s">
         <v>76</v>
-      </c>
-      <c r="C13" s="9" t="s">
-        <v>77</v>
       </c>
     </row>
     <row r="14" spans="1:3" ht="12.75" customHeight="1">
       <c r="A14" s="10" t="s">
+        <v>77</v>
+      </c>
+      <c r="B14" s="28" t="s">
         <v>78</v>
       </c>
-      <c r="B14" s="26" t="s">
-        <v>79</v>
-      </c>
-      <c r="C14" s="24"/>
+      <c r="C14" s="26"/>
     </row>
   </sheetData>
   <mergeCells count="7">
@@ -1560,8 +1569,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K109"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A11" workbookViewId="0">
-      <selection activeCell="G10" sqref="G10:G12"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="12.75" customHeight="1" x14ac:dyDescent="0"/>
@@ -1603,79 +1612,80 @@
     </row>
     <row r="3" spans="1:11" ht="28" customHeight="1">
       <c r="A3" s="7" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B3" s="7" t="s">
-        <v>126</v>
+        <v>95</v>
       </c>
       <c r="C3" s="1"/>
       <c r="E3" s="7" t="s">
-        <v>116</v>
-      </c>
-      <c r="F3" s="9" t="s">
-        <v>106</v>
+        <v>108</v>
+      </c>
+      <c r="F3" s="9">
+        <v>10</v>
       </c>
       <c r="G3" s="9"/>
     </row>
     <row r="4" spans="1:11" s="21" customFormat="1" ht="28" customHeight="1">
-      <c r="A4" s="23" t="s">
-        <v>87</v>
-      </c>
-      <c r="B4" s="23" t="s">
-        <v>88</v>
-      </c>
-      <c r="C4" s="23"/>
-      <c r="E4" s="20" t="s">
-        <v>117</v>
-      </c>
-      <c r="F4" s="20" t="s">
-        <v>110</v>
-      </c>
+      <c r="A4" s="25" t="s">
+        <v>86</v>
+      </c>
+      <c r="B4" s="25" t="s">
+        <v>111</v>
+      </c>
+      <c r="C4" s="25" t="s">
+        <v>112</v>
+      </c>
+      <c r="E4" s="20"/>
+      <c r="F4" s="20"/>
       <c r="G4" s="20"/>
     </row>
     <row r="5" spans="1:11" ht="28" customHeight="1">
-      <c r="A5" s="24"/>
-      <c r="B5" s="24"/>
-      <c r="C5" s="24"/>
+      <c r="A5" s="26"/>
+      <c r="B5" s="26"/>
+      <c r="C5" s="26"/>
       <c r="E5" s="10" t="s">
-        <v>118</v>
-      </c>
-      <c r="F5" s="25" t="s">
+        <v>109</v>
+      </c>
+      <c r="F5" s="27" t="s">
         <v>12</v>
       </c>
-      <c r="G5" s="24"/>
+      <c r="G5" s="26"/>
       <c r="I5" s="18"/>
       <c r="J5" s="16"/>
       <c r="K5" s="16"/>
     </row>
     <row r="6" spans="1:11" ht="28" customHeight="1">
-      <c r="A6" s="28" t="s">
-        <v>68</v>
-      </c>
-      <c r="B6" s="28" t="s">
-        <v>89</v>
+      <c r="A6" s="23" t="s">
+        <v>67</v>
+      </c>
+      <c r="B6" s="23" t="s">
+        <v>113</v>
+      </c>
+      <c r="C6" s="30" t="s">
+        <v>112</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>105</v>
-      </c>
-      <c r="F6" s="20" t="s">
-        <v>108</v>
+        <v>110</v>
+      </c>
+      <c r="F6" s="20">
+        <v>11</v>
       </c>
       <c r="G6" s="12"/>
     </row>
     <row r="7" spans="1:11" ht="28" customHeight="1">
       <c r="A7" s="22" t="s">
-        <v>114</v>
+        <v>89</v>
       </c>
       <c r="B7" s="22" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C7" s="21"/>
       <c r="E7" s="7" t="s">
-        <v>122</v>
+        <v>94</v>
       </c>
       <c r="F7" s="20" t="s">
-        <v>109</v>
+        <v>92</v>
       </c>
       <c r="G7" s="12"/>
       <c r="I7" s="16"/>
@@ -1684,26 +1694,26 @@
     </row>
     <row r="8" spans="1:11" ht="28" customHeight="1">
       <c r="A8" s="9" t="s">
-        <v>115</v>
-      </c>
-      <c r="B8" s="9" t="s">
         <v>90</v>
+      </c>
+      <c r="B8" s="9">
+        <v>3</v>
       </c>
       <c r="C8" s="9"/>
       <c r="E8" s="22" t="s">
-        <v>78</v>
-      </c>
-      <c r="F8" s="26" t="s">
-        <v>112</v>
-      </c>
-      <c r="G8" s="24"/>
+        <v>77</v>
+      </c>
+      <c r="F8" s="28" t="s">
+        <v>87</v>
+      </c>
+      <c r="G8" s="26"/>
     </row>
     <row r="9" spans="1:11" ht="28" customHeight="1">
       <c r="A9" s="9" t="s">
-        <v>116</v>
-      </c>
-      <c r="B9" s="20" t="s">
         <v>91</v>
+      </c>
+      <c r="B9" s="20">
+        <v>4</v>
       </c>
       <c r="C9" s="7"/>
       <c r="E9" s="2" t="s">
@@ -1717,77 +1727,69 @@
       </c>
     </row>
     <row r="10" spans="1:11" ht="28" customHeight="1">
-      <c r="A10" s="20" t="s">
-        <v>117</v>
-      </c>
-      <c r="B10" s="20" t="s">
-        <v>98</v>
-      </c>
-      <c r="C10" s="20"/>
-      <c r="E10" s="23" t="s">
-        <v>93</v>
-      </c>
-      <c r="F10" s="23" t="s">
-        <v>123</v>
-      </c>
-      <c r="G10" s="27"/>
+      <c r="A10" s="24" t="s">
+        <v>36</v>
+      </c>
+      <c r="B10" s="24" t="s">
+        <v>12</v>
+      </c>
+      <c r="C10" s="24"/>
+      <c r="E10" s="25" t="s">
+        <v>102</v>
+      </c>
+      <c r="F10" s="25">
+        <v>12</v>
+      </c>
+      <c r="G10" s="29"/>
     </row>
     <row r="11" spans="1:11" s="21" customFormat="1" ht="28" customHeight="1">
-      <c r="A11" s="11" t="s">
-        <v>118</v>
-      </c>
-      <c r="B11" s="10" t="s">
-        <v>12</v>
-      </c>
+      <c r="A11" s="11"/>
+      <c r="B11" s="10"/>
       <c r="C11" s="13"/>
-      <c r="E11" s="23"/>
-      <c r="F11" s="23"/>
-      <c r="G11" s="27"/>
+      <c r="E11" s="25"/>
+      <c r="F11" s="25"/>
+      <c r="G11" s="29"/>
       <c r="I11"/>
       <c r="J11"/>
       <c r="K11"/>
     </row>
     <row r="12" spans="1:11" ht="28" customHeight="1">
-      <c r="A12" s="28" t="s">
-        <v>105</v>
-      </c>
-      <c r="B12" s="28" t="s">
-        <v>92</v>
-      </c>
-      <c r="E12" s="24"/>
-      <c r="F12" s="24"/>
-      <c r="G12" s="24"/>
+      <c r="A12" s="23" t="s">
+        <v>99</v>
+      </c>
+      <c r="B12" s="23" t="s">
+        <v>96</v>
+      </c>
+      <c r="E12" s="26"/>
+      <c r="F12" s="26"/>
+      <c r="G12" s="26"/>
     </row>
     <row r="13" spans="1:11" ht="28" customHeight="1">
-      <c r="A13" s="28" t="s">
-        <v>122</v>
-      </c>
-      <c r="B13" s="28" t="s">
-        <v>94</v>
+      <c r="A13" s="23" t="s">
+        <v>100</v>
+      </c>
+      <c r="B13" s="23" t="s">
+        <v>97</v>
       </c>
       <c r="C13" s="21"/>
       <c r="E13" s="9" t="s">
-        <v>95</v>
-      </c>
-      <c r="F13" s="9" t="s">
-        <v>111</v>
+        <v>103</v>
+      </c>
+      <c r="F13" s="9">
+        <v>13</v>
       </c>
       <c r="G13" s="9"/>
     </row>
     <row r="14" spans="1:11" s="21" customFormat="1" ht="28" customHeight="1">
-      <c r="A14" s="28" t="s">
-        <v>127</v>
-      </c>
-      <c r="B14" s="28" t="s">
-        <v>119</v>
+      <c r="A14" s="23" t="s">
+        <v>101</v>
+      </c>
+      <c r="B14" s="23">
+        <v>5</v>
       </c>
       <c r="C14"/>
-      <c r="E14" s="9" t="s">
-        <v>97</v>
-      </c>
-      <c r="F14" s="20" t="s">
-        <v>121</v>
-      </c>
+      <c r="E14" s="9"/>
+      <c r="F14" s="20"/>
       <c r="G14" s="20"/>
       <c r="I14"/>
       <c r="J14"/>
@@ -1795,7 +1797,7 @@
     </row>
     <row r="15" spans="1:11" ht="28" customHeight="1">
       <c r="E15" s="11" t="s">
-        <v>17</v>
+        <v>104</v>
       </c>
       <c r="F15" s="22" t="s">
         <v>12</v>
@@ -1813,34 +1815,32 @@
         <v>3</v>
       </c>
       <c r="E16" s="1" t="s">
-        <v>99</v>
-      </c>
-      <c r="F16" s="23" t="s">
-        <v>125</v>
-      </c>
-      <c r="G16" s="23"/>
+        <v>105</v>
+      </c>
+      <c r="F16" s="25">
+        <v>14</v>
+      </c>
+      <c r="G16" s="25"/>
     </row>
     <row r="17" spans="1:11" ht="12">
       <c r="A17" s="8"/>
       <c r="B17" s="6"/>
       <c r="C17" s="8"/>
       <c r="E17" s="1"/>
-      <c r="F17" s="24"/>
-      <c r="G17" s="24"/>
+      <c r="F17" s="26"/>
+      <c r="G17" s="26"/>
     </row>
     <row r="18" spans="1:11" s="21" customFormat="1" ht="28" customHeight="1">
       <c r="A18" s="7" t="s">
-        <v>93</v>
-      </c>
-      <c r="B18" s="7" t="s">
-        <v>96</v>
+        <v>102</v>
+      </c>
+      <c r="B18" s="7">
+        <v>6</v>
       </c>
       <c r="C18" s="7"/>
-      <c r="E18" s="20" t="s">
-        <v>124</v>
-      </c>
-      <c r="F18" s="28" t="s">
-        <v>128</v>
+      <c r="E18" s="20"/>
+      <c r="F18" s="24" t="s">
+        <v>88</v>
       </c>
       <c r="I18"/>
       <c r="J18"/>
@@ -1848,88 +1848,81 @@
     </row>
     <row r="19" spans="1:11" ht="28" customHeight="1">
       <c r="A19" s="7" t="s">
-        <v>95</v>
-      </c>
-      <c r="B19" s="7" t="s">
-        <v>100</v>
+        <v>103</v>
+      </c>
+      <c r="B19" s="7">
+        <v>7</v>
       </c>
       <c r="C19" s="7"/>
       <c r="E19" s="1"/>
-      <c r="F19" s="10" t="s">
-        <v>113</v>
-      </c>
-      <c r="G19" s="13"/>
+      <c r="F19" s="10"/>
     </row>
     <row r="20" spans="1:11" ht="28" customHeight="1">
-      <c r="A20" s="7" t="s">
-        <v>97</v>
-      </c>
-      <c r="B20" s="9" t="s">
-        <v>102</v>
-      </c>
-      <c r="C20" s="9"/>
+      <c r="A20" s="24" t="s">
+        <v>104</v>
+      </c>
+      <c r="B20" s="24" t="s">
+        <v>12</v>
+      </c>
+      <c r="C20" s="24"/>
       <c r="E20" s="1"/>
     </row>
     <row r="21" spans="1:11" ht="28" customHeight="1">
-      <c r="A21" s="10" t="s">
-        <v>17</v>
-      </c>
-      <c r="B21" s="22" t="s">
-        <v>12</v>
-      </c>
+      <c r="A21" s="10"/>
+      <c r="B21" s="22"/>
       <c r="C21" s="21"/>
       <c r="E21" s="1"/>
     </row>
     <row r="22" spans="1:11" ht="28" customHeight="1">
       <c r="A22" s="7" t="s">
-        <v>99</v>
-      </c>
-      <c r="B22" s="20" t="s">
-        <v>103</v>
+        <v>105</v>
+      </c>
+      <c r="B22" s="20">
+        <v>8</v>
       </c>
       <c r="C22" s="12"/>
       <c r="E22" s="1"/>
     </row>
     <row r="23" spans="1:11" ht="28" customHeight="1">
       <c r="A23" s="7" t="s">
-        <v>101</v>
+        <v>106</v>
       </c>
       <c r="B23" s="20" t="s">
-        <v>107</v>
+        <v>98</v>
       </c>
       <c r="C23" s="12"/>
       <c r="E23" s="1"/>
     </row>
     <row r="24" spans="1:11" ht="28" customHeight="1">
       <c r="A24" s="10" t="s">
-        <v>120</v>
+        <v>93</v>
       </c>
       <c r="B24" s="22" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C24" s="21"/>
       <c r="E24" s="1"/>
     </row>
     <row r="25" spans="1:11" ht="14" customHeight="1">
-      <c r="A25" s="23" t="s">
-        <v>115</v>
-      </c>
-      <c r="B25" s="23" t="s">
-        <v>104</v>
-      </c>
-      <c r="C25" s="23"/>
+      <c r="A25" s="25" t="s">
+        <v>107</v>
+      </c>
+      <c r="B25" s="25">
+        <v>9</v>
+      </c>
+      <c r="C25" s="25"/>
       <c r="E25" s="1"/>
     </row>
     <row r="26" spans="1:11" ht="14" customHeight="1">
-      <c r="A26" s="24"/>
-      <c r="B26" s="24"/>
-      <c r="C26" s="24"/>
+      <c r="A26" s="26"/>
+      <c r="B26" s="26"/>
+      <c r="C26" s="26"/>
       <c r="E26" s="1"/>
     </row>
     <row r="27" spans="1:11" ht="14" customHeight="1">
-      <c r="A27" s="24"/>
-      <c r="B27" s="24"/>
-      <c r="C27" s="24"/>
+      <c r="A27" s="26"/>
+      <c r="B27" s="26"/>
+      <c r="C27" s="26"/>
       <c r="E27" s="1"/>
     </row>
     <row r="28" spans="1:11" ht="14" customHeight="1">
@@ -2148,11 +2141,6 @@
     <row r="109" ht="12"/>
   </sheetData>
   <mergeCells count="13">
-    <mergeCell ref="G16:G17"/>
-    <mergeCell ref="F16:F17"/>
-    <mergeCell ref="E10:E12"/>
-    <mergeCell ref="F10:F12"/>
-    <mergeCell ref="G10:G12"/>
     <mergeCell ref="A25:A27"/>
     <mergeCell ref="B25:B27"/>
     <mergeCell ref="C25:C27"/>
@@ -2161,6 +2149,11 @@
     <mergeCell ref="C4:C5"/>
     <mergeCell ref="A4:A5"/>
     <mergeCell ref="F5:G5"/>
+    <mergeCell ref="G16:G17"/>
+    <mergeCell ref="F16:F17"/>
+    <mergeCell ref="E10:E12"/>
+    <mergeCell ref="F10:F12"/>
+    <mergeCell ref="G10:G12"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>

--- a/NumachProgramme.xlsx
+++ b/NumachProgramme.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="28028"/>
   <workbookPr autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="520" yWindow="0" windowWidth="25600" windowHeight="14780" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="15040" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="5" r:id="rId1"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="48">
   <si>
     <t>Timeline</t>
   </si>
@@ -72,9 +72,6 @@
     <t>12:30-14:10</t>
   </si>
   <si>
-    <t>17:10-17:50</t>
-  </si>
-  <si>
     <t>Welcome and opening</t>
   </si>
   <si>
@@ -87,15 +84,6 @@
     <t>c</t>
   </si>
   <si>
-    <t>16:00-16:30</t>
-  </si>
-  <si>
-    <t>16:30-17:00</t>
-  </si>
-  <si>
-    <t>17:00-17:45</t>
-  </si>
-  <si>
     <t>9:15-9:55</t>
   </si>
   <si>
@@ -120,56 +108,68 @@
     <t>15:35-16:10</t>
   </si>
   <si>
-    <t>16:10-17:00</t>
-  </si>
-  <si>
-    <t>TBA</t>
-  </si>
-  <si>
     <t xml:space="preserve">Li-Lian Wang (NTU, Singapore) </t>
   </si>
   <si>
-    <t>Faker Ben Belgacem (UTC)</t>
-  </si>
-  <si>
-    <t>Elena Palomo</t>
-  </si>
-  <si>
-    <t>Frédéric Nataf (LJLL)</t>
-  </si>
-  <si>
-    <t>Adélia Seguera</t>
-  </si>
-  <si>
-    <t>Jie Shen</t>
-  </si>
-  <si>
-    <t>Kaber</t>
-  </si>
-  <si>
-    <t>Chuaju X</t>
-  </si>
-  <si>
-    <t>Etienne Ahusborde</t>
-  </si>
-  <si>
-    <t>Harbrecht</t>
-  </si>
-  <si>
     <t>Jean Clairambault (INRIA)</t>
   </si>
   <si>
     <t>Antoine Rousseau (INRIA)</t>
   </si>
   <si>
-    <t>Cai</t>
+    <t>Elena Palomo CIC energiGUNE, France)</t>
+  </si>
+  <si>
+    <t>Faker Ben Belgacem (UTC, France)</t>
+  </si>
+  <si>
+    <t>Frédéric Nataf (LJLL, France)</t>
+  </si>
+  <si>
+    <t>Jie Shen (Purdue university, USA)</t>
+  </si>
+  <si>
+    <t>Helmut Harbrecht (Universität Basel, Switzerland)</t>
+  </si>
+  <si>
+    <t>Etienne Ahusborde (University of Pau, France)</t>
+  </si>
+  <si>
+    <t>Yongyong Cai (CSRC-Beijing, China)</t>
+  </si>
+  <si>
+    <t>Adel Blouza (University of Rouen, France)</t>
+  </si>
+  <si>
+    <t>Sidi-Mahmoud Kaber(LJLL, France)</t>
+  </si>
+  <si>
+    <t>Chuanju Xu (Xiamen, China)</t>
+  </si>
+  <si>
+    <t>16:00-16:40</t>
+  </si>
+  <si>
+    <t>Christophe Prud'homme (IRMA, France</t>
+  </si>
+  <si>
+    <t>16:40-17:10</t>
+  </si>
+  <si>
+    <t>17:10-17:40</t>
+  </si>
+  <si>
+    <t>16:10-16:50</t>
+  </si>
+  <si>
+    <t>17:00-17:40</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -195,6 +195,11 @@
       <sz val="10"/>
       <color theme="11"/>
       <name val="Arial"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Courier"/>
     </font>
   </fonts>
   <fills count="5">
@@ -232,7 +237,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="53">
+  <cellStyleXfs count="55">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -286,8 +291,10 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="28">
+  <cellXfs count="30">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
@@ -357,6 +364,12 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -364,16 +377,16 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
-  <cellStyles count="53">
+  <cellStyles count="55">
     <cellStyle name="Lien hypertexte" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Lien hypertexte" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Lien hypertexte" xfId="5" builtinId="8" hidden="1"/>
@@ -400,6 +413,7 @@
     <cellStyle name="Lien hypertexte" xfId="47" builtinId="8" hidden="1"/>
     <cellStyle name="Lien hypertexte" xfId="49" builtinId="8" hidden="1"/>
     <cellStyle name="Lien hypertexte" xfId="51" builtinId="8" hidden="1"/>
+    <cellStyle name="Lien hypertexte" xfId="53" builtinId="8" hidden="1"/>
     <cellStyle name="Lien hypertexte visité" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Lien hypertexte visité" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="Lien hypertexte visité" xfId="6" builtinId="9" hidden="1"/>
@@ -426,6 +440,7 @@
     <cellStyle name="Lien hypertexte visité" xfId="48" builtinId="9" hidden="1"/>
     <cellStyle name="Lien hypertexte visité" xfId="50" builtinId="9" hidden="1"/>
     <cellStyle name="Lien hypertexte visité" xfId="52" builtinId="9" hidden="1"/>
+    <cellStyle name="Lien hypertexte visité" xfId="54" builtinId="9" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -757,8 +772,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K109"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F16" sqref="F16:F17"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="G9" sqref="G9:G11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="12.75" customHeight="1" x14ac:dyDescent="0"/>
@@ -798,66 +813,66 @@
       </c>
       <c r="H2" s="14"/>
     </row>
-    <row r="3" spans="1:11" ht="28" customHeight="1">
+    <row r="3" spans="1:11" ht="56" customHeight="1">
       <c r="A3" s="7" t="s">
         <v>8</v>
       </c>
       <c r="B3" s="7" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C3" s="1"/>
       <c r="E3" s="7" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="F3" s="9" t="s">
-        <v>43</v>
+        <v>37</v>
       </c>
       <c r="G3" s="9"/>
     </row>
     <row r="4" spans="1:11" s="18" customFormat="1" ht="28" customHeight="1">
-      <c r="A4" s="23" t="s">
+      <c r="A4" s="25" t="s">
         <v>9</v>
       </c>
-      <c r="B4" s="23" t="s">
-        <v>36</v>
-      </c>
-      <c r="C4" s="23" t="s">
-        <v>34</v>
-      </c>
-      <c r="E4" s="17"/>
-      <c r="F4" s="17"/>
-      <c r="G4" s="17"/>
-    </row>
-    <row r="5" spans="1:11" ht="28" customHeight="1">
-      <c r="A5" s="24"/>
-      <c r="B5" s="24"/>
-      <c r="C5" s="24"/>
-      <c r="E5" s="10" t="s">
-        <v>32</v>
-      </c>
-      <c r="F5" s="25" t="s">
+      <c r="B4" s="25" t="s">
+        <v>33</v>
+      </c>
+      <c r="C4" s="25"/>
+      <c r="E4" s="10" t="s">
+        <v>28</v>
+      </c>
+      <c r="F4" s="28" t="s">
         <v>3</v>
       </c>
-      <c r="G5" s="24"/>
+      <c r="G4" s="26"/>
+    </row>
+    <row r="5" spans="1:11" ht="56" customHeight="1">
+      <c r="A5" s="26"/>
+      <c r="B5" s="26"/>
+      <c r="C5" s="26"/>
+      <c r="E5" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="F5" s="17" t="s">
+        <v>30</v>
+      </c>
+      <c r="G5" s="12"/>
       <c r="I5" s="15"/>
       <c r="J5" s="14"/>
       <c r="K5" s="14"/>
     </row>
-    <row r="6" spans="1:11" ht="28" customHeight="1">
+    <row r="6" spans="1:11" ht="56" customHeight="1">
       <c r="A6" s="20" t="s">
         <v>6</v>
       </c>
       <c r="B6" s="20" t="s">
-        <v>35</v>
-      </c>
-      <c r="C6" s="22" t="s">
-        <v>34</v>
-      </c>
+        <v>29</v>
+      </c>
+      <c r="C6" s="22"/>
       <c r="E6" s="7" t="s">
-        <v>33</v>
+        <v>47</v>
       </c>
       <c r="F6" s="17" t="s">
-        <v>45</v>
+        <v>15</v>
       </c>
       <c r="G6" s="12"/>
     </row>
@@ -869,13 +884,13 @@
         <v>4</v>
       </c>
       <c r="C7" s="18"/>
-      <c r="E7" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="F7" s="17" t="s">
-        <v>15</v>
-      </c>
-      <c r="G7" s="12"/>
+      <c r="E7" s="19" t="s">
+        <v>7</v>
+      </c>
+      <c r="F7" s="27" t="s">
+        <v>10</v>
+      </c>
+      <c r="G7" s="26"/>
       <c r="I7" s="14"/>
       <c r="J7" s="14"/>
       <c r="K7" s="14"/>
@@ -885,34 +900,34 @@
         <v>13</v>
       </c>
       <c r="B8" s="9" t="s">
-        <v>38</v>
-      </c>
-      <c r="C8" s="9"/>
-      <c r="E8" s="19" t="s">
-        <v>7</v>
-      </c>
-      <c r="F8" s="26" t="s">
-        <v>10</v>
-      </c>
-      <c r="G8" s="24"/>
+        <v>34</v>
+      </c>
+      <c r="C8" s="24"/>
+      <c r="E8" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="F8" s="3">
+        <v>43299</v>
+      </c>
+      <c r="G8" s="5" t="s">
+        <v>1</v>
+      </c>
     </row>
     <row r="9" spans="1:11" ht="28" customHeight="1">
       <c r="A9" s="9" t="s">
         <v>14</v>
       </c>
       <c r="B9" s="17" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="C9" s="7"/>
-      <c r="E9" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="F9" s="3">
-        <v>43299</v>
-      </c>
-      <c r="G9" s="5" t="s">
-        <v>1</v>
-      </c>
+      <c r="E9" s="25" t="s">
+        <v>21</v>
+      </c>
+      <c r="F9" s="25" t="s">
+        <v>31</v>
+      </c>
+      <c r="G9" s="29"/>
     </row>
     <row r="10" spans="1:11" ht="28" customHeight="1">
       <c r="A10" s="21" t="s">
@@ -922,75 +937,75 @@
         <v>3</v>
       </c>
       <c r="C10" s="21"/>
-      <c r="E10" s="23" t="s">
-        <v>25</v>
-      </c>
-      <c r="F10" s="23" t="s">
-        <v>46</v>
-      </c>
-      <c r="G10" s="27"/>
+      <c r="E10" s="25"/>
+      <c r="F10" s="25"/>
+      <c r="G10" s="29"/>
     </row>
     <row r="11" spans="1:11" s="18" customFormat="1" ht="28" customHeight="1">
       <c r="A11" s="11"/>
       <c r="B11" s="10"/>
       <c r="C11" s="13"/>
-      <c r="E11" s="23"/>
-      <c r="F11" s="23"/>
-      <c r="G11" s="27"/>
+      <c r="E11" s="26"/>
+      <c r="F11" s="26"/>
+      <c r="G11" s="26"/>
       <c r="I11"/>
       <c r="J11"/>
       <c r="K11"/>
     </row>
-    <row r="12" spans="1:11" ht="28" customHeight="1">
+    <row r="12" spans="1:11" ht="56" customHeight="1">
       <c r="A12" s="20" t="s">
+        <v>42</v>
+      </c>
+      <c r="B12" s="20" t="s">
+        <v>43</v>
+      </c>
+      <c r="E12" s="9" t="s">
         <v>22</v>
       </c>
-      <c r="B12" s="20" t="s">
-        <v>19</v>
-      </c>
-      <c r="E12" s="24"/>
-      <c r="F12" s="24"/>
-      <c r="G12" s="24"/>
+      <c r="F12" s="22" t="s">
+        <v>38</v>
+      </c>
+      <c r="G12" s="9"/>
     </row>
     <row r="13" spans="1:11" ht="28" customHeight="1">
       <c r="A13" s="20" t="s">
-        <v>23</v>
+        <v>44</v>
       </c>
       <c r="B13" s="20" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="C13" s="18"/>
-      <c r="E13" s="9" t="s">
-        <v>26</v>
-      </c>
-      <c r="F13" s="9" t="s">
-        <v>47</v>
-      </c>
-      <c r="G13" s="9"/>
+      <c r="E13" s="9"/>
+      <c r="F13" s="17"/>
+      <c r="G13" s="17"/>
     </row>
     <row r="14" spans="1:11" s="18" customFormat="1" ht="28" customHeight="1">
       <c r="A14" s="20" t="s">
-        <v>24</v>
-      </c>
-      <c r="B14" s="20">
-        <v>5</v>
+        <v>45</v>
+      </c>
+      <c r="B14" s="20" t="s">
+        <v>19</v>
       </c>
       <c r="C14"/>
-      <c r="E14" s="9"/>
-      <c r="F14" s="17"/>
-      <c r="G14" s="17"/>
+      <c r="E14" s="11" t="s">
+        <v>23</v>
+      </c>
+      <c r="F14" s="19" t="s">
+        <v>3</v>
+      </c>
+      <c r="G14" s="19"/>
       <c r="I14"/>
       <c r="J14"/>
       <c r="K14"/>
     </row>
     <row r="15" spans="1:11" ht="28" customHeight="1">
-      <c r="E15" s="11" t="s">
-        <v>27</v>
-      </c>
-      <c r="F15" s="19" t="s">
-        <v>3</v>
-      </c>
-      <c r="G15" s="19"/>
+      <c r="E15" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="F15" s="25" t="s">
+        <v>40</v>
+      </c>
+      <c r="G15" s="25"/>
     </row>
     <row r="16" spans="1:11" ht="28" customHeight="1">
       <c r="A16" s="4" t="s">
@@ -1002,52 +1017,48 @@
       <c r="C16" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="E16" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="F16" s="23" t="s">
-        <v>41</v>
-      </c>
-      <c r="G16" s="23"/>
+      <c r="E16" s="1"/>
+      <c r="F16" s="26"/>
+      <c r="G16" s="26"/>
     </row>
     <row r="17" spans="1:11" ht="12">
       <c r="A17" s="8"/>
       <c r="B17" s="6"/>
       <c r="C17" s="8"/>
-      <c r="E17" s="1"/>
-      <c r="F17" s="24"/>
-      <c r="G17" s="24"/>
-    </row>
-    <row r="18" spans="1:11" s="18" customFormat="1" ht="28" customHeight="1">
+      <c r="E17" s="17"/>
+      <c r="F17" s="21" t="s">
+        <v>11</v>
+      </c>
+      <c r="G17" s="18"/>
+    </row>
+    <row r="18" spans="1:11" s="18" customFormat="1" ht="56" customHeight="1">
       <c r="A18" s="7" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="B18" s="7" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="C18" s="7"/>
-      <c r="E18" s="17"/>
-      <c r="F18" s="21" t="s">
-        <v>11</v>
-      </c>
+      <c r="E18" s="1"/>
+      <c r="F18" s="10"/>
+      <c r="G18"/>
       <c r="I18"/>
       <c r="J18"/>
       <c r="K18"/>
     </row>
-    <row r="19" spans="1:11" ht="28" customHeight="1">
+    <row r="19" spans="1:11" ht="56" customHeight="1">
       <c r="A19" s="7" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="B19" s="7" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="C19" s="7"/>
       <c r="E19" s="1"/>
-      <c r="F19" s="10"/>
     </row>
     <row r="20" spans="1:11" ht="28" customHeight="1">
       <c r="A20" s="21" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="B20" s="21" t="s">
         <v>3</v>
@@ -1061,24 +1072,24 @@
       <c r="C21" s="18"/>
       <c r="E21" s="1"/>
     </row>
-    <row r="22" spans="1:11" ht="28" customHeight="1">
+    <row r="22" spans="1:11" ht="56" customHeight="1">
       <c r="A22" s="7" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="B22" s="17" t="s">
-        <v>44</v>
-      </c>
-      <c r="C22" s="12"/>
+        <v>36</v>
+      </c>
+      <c r="C22" s="14"/>
       <c r="E22" s="1"/>
     </row>
-    <row r="23" spans="1:11" ht="28" customHeight="1">
+    <row r="23" spans="1:11" ht="42" customHeight="1">
       <c r="A23" s="7" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="B23" s="17" t="s">
-        <v>21</v>
-      </c>
-      <c r="C23" s="12"/>
+        <v>20</v>
+      </c>
+      <c r="C23" s="14"/>
       <c r="E23" s="1"/>
     </row>
     <row r="24" spans="1:11" ht="28" customHeight="1">
@@ -1088,29 +1099,26 @@
       <c r="B24" s="19" t="s">
         <v>4</v>
       </c>
-      <c r="C24" s="18"/>
+      <c r="C24" s="23"/>
       <c r="E24" s="1"/>
     </row>
-    <row r="25" spans="1:11" ht="14" customHeight="1">
-      <c r="A25" s="23" t="s">
-        <v>30</v>
-      </c>
-      <c r="B25" s="23" t="s">
-        <v>42</v>
-      </c>
-      <c r="C25" s="23"/>
+    <row r="25" spans="1:11" ht="42" customHeight="1">
+      <c r="A25" s="25" t="s">
+        <v>26</v>
+      </c>
+      <c r="B25" s="25" t="s">
+        <v>39</v>
+      </c>
       <c r="E25" s="1"/>
     </row>
-    <row r="26" spans="1:11" ht="14" customHeight="1">
-      <c r="A26" s="24"/>
-      <c r="B26" s="24"/>
-      <c r="C26" s="24"/>
+    <row r="26" spans="1:11" ht="42" customHeight="1">
+      <c r="A26" s="26"/>
+      <c r="B26" s="26"/>
       <c r="E26" s="1"/>
     </row>
-    <row r="27" spans="1:11" ht="14" customHeight="1">
-      <c r="A27" s="24"/>
-      <c r="B27" s="24"/>
-      <c r="C27" s="24"/>
+    <row r="27" spans="1:11" ht="42" customHeight="1">
+      <c r="A27" s="26"/>
+      <c r="B27" s="26"/>
       <c r="E27" s="1"/>
     </row>
     <row r="28" spans="1:11" ht="14" customHeight="1">
@@ -1304,9 +1312,7 @@
     <row r="88" spans="5:5" ht="12">
       <c r="E88" s="1"/>
     </row>
-    <row r="89" spans="5:5" ht="12">
-      <c r="E89" s="1"/>
-    </row>
+    <row r="89" spans="5:5" ht="12"/>
     <row r="90" spans="5:5" ht="12"/>
     <row r="91" spans="5:5" ht="12"/>
     <row r="92" spans="5:5" ht="12"/>
@@ -1328,20 +1334,19 @@
     <row r="108" ht="12"/>
     <row r="109" ht="12"/>
   </sheetData>
-  <mergeCells count="13">
+  <mergeCells count="12">
     <mergeCell ref="A25:A27"/>
     <mergeCell ref="B25:B27"/>
-    <mergeCell ref="C25:C27"/>
-    <mergeCell ref="F8:G8"/>
+    <mergeCell ref="F7:G7"/>
     <mergeCell ref="B4:B5"/>
     <mergeCell ref="C4:C5"/>
     <mergeCell ref="A4:A5"/>
-    <mergeCell ref="F5:G5"/>
-    <mergeCell ref="G16:G17"/>
-    <mergeCell ref="F16:F17"/>
-    <mergeCell ref="E10:E12"/>
-    <mergeCell ref="F10:F12"/>
-    <mergeCell ref="G10:G12"/>
+    <mergeCell ref="F4:G4"/>
+    <mergeCell ref="G15:G16"/>
+    <mergeCell ref="F15:F16"/>
+    <mergeCell ref="E9:E11"/>
+    <mergeCell ref="F9:F11"/>
+    <mergeCell ref="G9:G11"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
